--- a/study/excel/Sums.xlsx
+++ b/study/excel/Sums.xlsx
@@ -333,8 +333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
